--- a/Jackh19.xlsx
+++ b/Jackh19.xlsx
@@ -472,19 +472,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
